--- a/Shubhangi/Use_Case_V_0_4.xlsx
+++ b/Shubhangi/Use_Case_V_0_4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="120" windowWidth="20055" windowHeight="9210"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="20055" windowHeight="9210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="230">
   <si>
     <t>REQ NO</t>
   </si>
@@ -396,10 +396,6 @@
     <t>FUN/User Type master</t>
   </si>
   <si>
-    <t>Verify by click on user type info itm will
-goes to new page i.e user type info page.</t>
-  </si>
-  <si>
     <t>User type info tab will be active.</t>
   </si>
   <si>
@@ -414,14 +410,534 @@
     <t>User type master page</t>
   </si>
   <si>
-    <t xml:space="preserve">verify that user type master </t>
+    <t>Verify by click on user type info it will
+goes to new page i.e user type info page.</t>
+  </si>
+  <si>
+    <t>verify that user type master page will 
+show 1.Add new tab at corner.
+           2 It will show table which contain
+           user type,description,status, and 
+           action.
+            3.page will also show search icon
+             above the table.
+          4.it will also show at the end of table ,first,previous and next last tab.</t>
+  </si>
+  <si>
+    <t>User type master page will be 
+open.</t>
+  </si>
+  <si>
+    <t>The user type master page will 
+show 1.Add new tab at corner.
+           2 It will show table which contain
+           user type,description,status, and 
+           action.
+            3.page will also show search icon
+             above the table.
+          4.it will also show at the end of table ,first,previous and next last tab.</t>
+  </si>
+  <si>
+    <t>FUN/ADD NEW Tab</t>
+  </si>
+  <si>
+    <t>verify that click on add new tab it will
+open new page i.e add/update user type
+information.</t>
+  </si>
+  <si>
+    <t>Add New tab is active</t>
+  </si>
+  <si>
+    <t>1.click on Add New Tab.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> click on add new tab it will
+open new page i.e add/update user type
+information.</t>
+  </si>
+  <si>
+    <t>Verify that add/update form will display
+1.User Type with place holder
+2.User Description with place holder.
+3.Status with dropdown list.
+4.close and save info tab</t>
+  </si>
+  <si>
+    <t>add/update page will be open</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> add/update form will display
+1.User Type with place holder
+2.User Description with place holder.
+3.Status with dropdown list.
+4.close and save info tab</t>
+  </si>
+  <si>
+    <t>FUN/User Type Field</t>
+  </si>
+  <si>
+    <t>Verify that user type will accept only 
+characters.</t>
+  </si>
+  <si>
+    <t>1.click on Add New Tab.
+2.click on user type ,the curser 
+is on user type field.</t>
+  </si>
+  <si>
+    <t>Demo user</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> user type will accept only 
+characters.</t>
+  </si>
+  <si>
+    <t>Verify that user type will not accept 
+number and special characters.</t>
+  </si>
+  <si>
+    <t>add/update page will be open
+curser should be on user type
+field.</t>
+  </si>
+  <si>
+    <t>asd1@34</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> user type will not accept 
+number and special characters.</t>
+  </si>
+  <si>
+    <t>Verify that user type field will not accept
+characters more than 100 range.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> user type field will not accept
+characters more than 100 range.</t>
+  </si>
+  <si>
+    <t>Verify that if user type left blank it will
+pop-up error message"please enter  user
+type."</t>
+  </si>
+  <si>
+    <t>If user type left blank it will
+pop-up error message"please enter  user
+type."</t>
+  </si>
+  <si>
+    <t>FUN/User Description</t>
+  </si>
+  <si>
+    <t>Verify that user description will accept
+characters,numbers and special characters</t>
+  </si>
+  <si>
+    <t>add/update page will be open
+curser should be on user description
+field.</t>
+  </si>
+  <si>
+    <t>1.click on Add New Tab.
+2.click on user description,cursor should be on user description.</t>
+  </si>
+  <si>
+    <t>vehicle234&amp;45</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> user description will accept
+characters,numbers and special characters</t>
+  </si>
+  <si>
+    <t>Verify that if user description field left
+blank then it will not show any error 
+message.</t>
+  </si>
+  <si>
+    <t>If user description field left
+blank then it will not show any error 
+message.</t>
+  </si>
+  <si>
+    <t>FUN/Status drop-down list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add/update page will be open
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.click on Add New Tab.
+2.click on status drop down </t>
+  </si>
+  <si>
+    <t>verify that if we click on status it will
+show drop down list with option
+1.select
+2.Active
+3Inactive
+4.Pending.</t>
+  </si>
+  <si>
+    <t>1.Select
+1.Active
+2Inactive
+3.pending</t>
+  </si>
+  <si>
+    <t>if we click on status it will
+show drop down list with option
+1.select
+2.Active
+3Inactive
+4.Pending.</t>
+  </si>
+  <si>
+    <t>verify that if we select one option from
+drop-down list it will show that option 
+on status.</t>
+  </si>
+  <si>
+    <t>1.Active</t>
+  </si>
+  <si>
+    <t>if we select one option from
+drop-down list it will show that option 
+on status.</t>
+  </si>
+  <si>
+    <t>Verify that if we are not selecting any 
+option from drop-down list then that 
+status box will become red .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> if we are not selecting any 
+option from drop-down list then that 
+status box will become red .</t>
+  </si>
+  <si>
+    <t>TC14</t>
+  </si>
+  <si>
+    <t>FUN/Save info</t>
+  </si>
+  <si>
+    <t>Verify that entering valid data and click
+on save info button then it will goes to
+User type information page and pop-up
+the message that data updated successfully.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.add/update page will be open with entering all data.
+</t>
+  </si>
+  <si>
+    <t>Enter all data 
+click on save info button.</t>
+  </si>
+  <si>
+    <t>User type:Vehicle
+User Description:it
+controls vehicles
+status:Active</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> entering valid data and click
+on save info button then it will goes to
+User type information page and pop-up
+the message that data updated successfully.</t>
+  </si>
+  <si>
+    <t>TC15</t>
+  </si>
+  <si>
+    <t>Verify that if mandatory field is left blank
+then click on save info button then it will
+shows error message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.add/update page will be open .
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter data </t>
+  </si>
+  <si>
+    <t>User type:Vehicle
+User Description:it
+controls vehicles
+status:</t>
+  </si>
+  <si>
+    <t>if mandatory field is left blank
+then click on save info button then it will
+shows error message</t>
+  </si>
+  <si>
+    <t>TC16</t>
+  </si>
+  <si>
+    <t>Verify that if we enter data which is already
+enter and click on save info button 
+then it will pop-up error message"data 
+already available.please try again"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> if we enter data which is already
+enter and click on save info button 
+then it will pop-up error message"data 
+already available.please try again"</t>
+  </si>
+  <si>
+    <t>TC17</t>
+  </si>
+  <si>
+    <t>FUN/Close button</t>
+  </si>
+  <si>
+    <t>verify that if we click on close button 
+then that screen will be close.</t>
+  </si>
+  <si>
+    <t>click on close button.</t>
+  </si>
+  <si>
+    <t>TC18</t>
+  </si>
+  <si>
+    <t>FUN/pop-up message screen</t>
+  </si>
+  <si>
+    <t>Verify that if we click on save info button 
+it will pop-up message screen it will be
+close automatically .</t>
+  </si>
+  <si>
+    <t>click on save info button</t>
+  </si>
+  <si>
+    <t>if we click on save info button 
+it will pop-up message screen 
+that message screen will not close automatically ,It will remain as it is till user will not 
+close it.</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>TC19</t>
+  </si>
+  <si>
+    <t>FUN/Action Column</t>
+  </si>
+  <si>
+    <t>verify that action column contain two 
+button i.e edit and  Mark as Active or
+Mark as Inactive.</t>
+  </si>
+  <si>
+    <t>Action column will be present</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> if we click on save info button 
+it will pop-up message screen that screen will be 
+close automatically .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> action column contain two 
+button i.e edit and  Mark as Active or
+Mark as Inactive.</t>
+  </si>
+  <si>
+    <t>TC20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FUN/EDIT </t>
+  </si>
+  <si>
+    <t>verify that if we click on edit it will open
+new/update page with previous data</t>
+  </si>
+  <si>
+    <t>edit button will be active.</t>
+  </si>
+  <si>
+    <t>1.click on edit button</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> if we click on edit it will open
+new/update page with previous data</t>
+  </si>
+  <si>
+    <t>TC21</t>
+  </si>
+  <si>
+    <t>verify that previous data will be deleted 
+and we can change the previous data.</t>
+  </si>
+  <si>
+    <t>new/edit page will be open</t>
+  </si>
+  <si>
+    <t>TC22</t>
+  </si>
+  <si>
+    <t>verify that mandatory data will left blank  then it will pop-up error message to that field</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mandatory data will left blank  then it will pop-up error message to that field</t>
+  </si>
+  <si>
+    <t>TC23</t>
+  </si>
+  <si>
+    <t>1.click on edit button
+2.update data</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> updating data click on save info
+it will give success message data will be
+updated.</t>
+  </si>
+  <si>
+    <t>TC24</t>
+  </si>
+  <si>
+    <t>verify that updating data click on save info it will give success message data will be updated.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FUN/Status </t>
+  </si>
+  <si>
+    <t>verify that if we click on mark as active
+then status will change status and it will pop-up
+message data active successfully.</t>
+  </si>
+  <si>
+    <t>mark as active button will be active.</t>
+  </si>
+  <si>
+    <t>click on mark as active button.</t>
+  </si>
+  <si>
+    <t>TC25</t>
+  </si>
+  <si>
+    <t>verify that if user click on mark as active
+then status will change status and it will pop-up
+message data active successfully.</t>
+  </si>
+  <si>
+    <t>verify that if user click on mark as inactive then status will change and pop-up error message data inactive successfully.</t>
+  </si>
+  <si>
+    <t>mark as inactive button will be active.</t>
+  </si>
+  <si>
+    <t>click on mark as inactive button.</t>
+  </si>
+  <si>
+    <t>if user click on mark as inactive then status will change and pop-up error message data inactive successfully.</t>
+  </si>
+  <si>
+    <t>TC26</t>
+  </si>
+  <si>
+    <t>FUN/message box</t>
+  </si>
+  <si>
+    <t>verify that if user change status then it will pop-up message box that message box we close automatically.</t>
+  </si>
+  <si>
+    <t>click on status button</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>if user change status then it will pop up error message that message box will be close automatically.</t>
+  </si>
+  <si>
+    <t>that message box will not close automatically,it will not close till user close that window.message box window will not close automatically.</t>
+  </si>
+  <si>
+    <t>FOR User Master</t>
+  </si>
+  <si>
+    <t>FUN/User info tab</t>
+  </si>
+  <si>
+    <t>verify that if we click on user info then it
+will goes to User info page.</t>
+  </si>
+  <si>
+    <t>That user info tab will be active.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">click on user info </t>
+  </si>
+  <si>
+    <t>FUN/Add new tab</t>
+  </si>
+  <si>
+    <t>verify that if we click on add new tab it will open add/update user info page.
+That page will contain 1:User Name with placeholder.
+2.User Type with drop down list
+3.password and confirm password.
+4.full name,mobile no.,email id,address1 and address 2 with place holder.
+5.area with drop down list.
+6.city pune is already present .
+7.pincode with placeholder.
+8.state maharashtra is already present.
+9.status with drop-down list
+10.close and save info button</t>
+  </si>
+  <si>
+    <t>If we click on add new tab it will open add/update user info page.
+That page will contain 1:User Name with placeholder.
+2.User Type with drop down list
+3.password and confirm password.
+4.full name,mobile no.,email id,address1 and address 2 with place holder.
+5.area with drop down list.
+6.city pune is already present .
+7.pincode with placeholder.
+8.state maharashtra is already present.
+9.status with drop-down list
+10.close and save info button</t>
+  </si>
+  <si>
+    <t>FUN/username</t>
+  </si>
+  <si>
+    <t>verify that username will accept alphanumeric
+characters it will not accept special characters.</t>
+  </si>
+  <si>
+    <t>add/update of user info will be open.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">click on add new tab.
+</t>
+  </si>
+  <si>
+    <t>username:admin1</t>
+  </si>
+  <si>
+    <t>verify that if we left blank user name
+then it will pop-up error message.</t>
+  </si>
+  <si>
+    <t>username:</t>
+  </si>
+  <si>
+    <t>verify that if we left blank user name then it will pop-up error message.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -463,6 +979,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -516,7 +1040,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -541,6 +1065,10 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -836,10 +1364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B18" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="B55" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1344,17 +1872,17 @@
         <v>99</v>
       </c>
       <c r="D23" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="F23" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="H23" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="H23" s="5" t="s">
-        <v>103</v>
-      </c>
       <c r="I23" s="4" t="s">
         <v>26</v>
       </c>
@@ -1362,15 +1890,799 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" ht="225">
       <c r="B24" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>105</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="60">
+      <c r="B25" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="90">
+      <c r="B26" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="60">
+      <c r="B27" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="75">
+      <c r="B28" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="75">
+      <c r="B29" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="75">
+      <c r="B30" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="75">
+      <c r="B31" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="75">
+      <c r="B32" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" ht="105">
+      <c r="B33" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" ht="60">
+      <c r="B34" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" ht="60">
+      <c r="B35" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" ht="105">
+      <c r="B36" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" ht="75">
+      <c r="B37" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" ht="120">
+      <c r="B38" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" ht="60">
+      <c r="B39" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" ht="165">
+      <c r="B40" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="J40" s="14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" ht="60">
+      <c r="B41" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" ht="45">
+      <c r="B42" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" ht="60">
+      <c r="B43" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" ht="45">
+      <c r="B44" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" ht="75">
+      <c r="B45" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" ht="90">
+      <c r="B46" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" ht="75">
+      <c r="B47" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" ht="60">
+      <c r="B48" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="J48" s="14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="15.75">
+      <c r="A50" s="15"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+    </row>
+    <row r="52" spans="1:10" ht="45">
+      <c r="B52" t="s">
+        <v>20</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="300">
+      <c r="B53" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="60">
+      <c r="B54" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="45">
+      <c r="B55" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1379,9 +2691,10 @@
     <hyperlink ref="G9" r:id="rId2"/>
     <hyperlink ref="G11" r:id="rId3"/>
     <hyperlink ref="G12" r:id="rId4"/>
+    <hyperlink ref="G28" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 

--- a/Shubhangi/Use_Case_V_0_4.xlsx
+++ b/Shubhangi/Use_Case_V_0_4.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="602">
   <si>
     <t>REQ NO</t>
   </si>
@@ -189,11 +189,6 @@
     <t>FUN/Password</t>
   </si>
   <si>
-    <t>To verify  password field will accept 
-alphanumeric characters and special 
-characters also.</t>
-  </si>
-  <si>
     <t>1.curser should be on Password
 field.</t>
   </si>
@@ -202,9 +197,6 @@
 2.click on password field.
 3.enter password with character ,number and special
 characters.</t>
-  </si>
-  <si>
-    <t>sdf@345</t>
   </si>
   <si>
     <t>password field will accept 
@@ -931,6 +923,1536 @@
   </si>
   <si>
     <t>verify that if we left blank user name then it will pop-up error message.</t>
+  </si>
+  <si>
+    <t>To verify  password field will accept 
+alphanumeric characters and special 
+characters also.It will accept one capital
+character and number and one special
+charactrs</t>
+  </si>
+  <si>
+    <t>Pass@123</t>
+  </si>
+  <si>
+    <t>FUN/User Type</t>
+  </si>
+  <si>
+    <t>verify that if we click on user type then it will show drop-down list with option.</t>
+  </si>
+  <si>
+    <t>if we click on user type then it will show drop-down list with option.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify that if user not select any option 
+from drop down list it will show error 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> if user not select any option 
+from drop down list it will show error 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FUN/Password </t>
+  </si>
+  <si>
+    <t>verify that password will accept one 
+capital character and number and special
+characters only .It will accept only 8 
+characters password</t>
+  </si>
+  <si>
+    <t>password:Pass@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> password will accept one 
+capital character and number and special
+characters only .It will accept only 8 characters password</t>
+  </si>
+  <si>
+    <t>verify that if user enter greater than 8 
+characters then it will show error
+it will not accept password greater than
+8 .</t>
+  </si>
+  <si>
+    <t>password:sasdsdhj@1</t>
+  </si>
+  <si>
+    <t>if user enter greater than 8 
+characters then it will show error
+it will not accept password greater than
+8 .</t>
+  </si>
+  <si>
+    <t>password:asd@1</t>
+  </si>
+  <si>
+    <t>if user enter less than 8 
+characters then it will show error
+it will not accept password less than
+8 .</t>
+  </si>
+  <si>
+    <t>verify that if user enter less than 8 
+characters then it will show error
+it will not accept password less than
+8 .</t>
+  </si>
+  <si>
+    <t>FUN/Password &amp; confirm password</t>
+  </si>
+  <si>
+    <t>verify that password and confirm password
+will be same not different.</t>
+  </si>
+  <si>
+    <t>password:pAss@123
+confirm password:
+pAss@123</t>
+  </si>
+  <si>
+    <t>password and confirm password
+will be same not different.</t>
+  </si>
+  <si>
+    <t>click on add new tab.
+Enter password and confirm
+password</t>
+  </si>
+  <si>
+    <t>password:pAss@123
+confirm password:
+pAss@1</t>
+  </si>
+  <si>
+    <t>verify  if password and confirm 
+password not same then it will show error
+password not matching.</t>
+  </si>
+  <si>
+    <t>FUN/Full Name</t>
+  </si>
+  <si>
+    <t>verify that full name will accept only 
+alphanumeric chaaracters not accept 
+special characters.</t>
+  </si>
+  <si>
+    <t>click on add new tab.
+Enter full name.</t>
+  </si>
+  <si>
+    <t>full name:shubhangi12</t>
+  </si>
+  <si>
+    <t>full name will accept only 
+alphanumeric chaaracters not accept 
+special characters.</t>
+  </si>
+  <si>
+    <t>full name:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> if we left blank full name field
+then it will show error</t>
+  </si>
+  <si>
+    <t>verify that if we left blank full name field then it will show error</t>
+  </si>
+  <si>
+    <t>FUN/Mobile No.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">click on add new tab.
+Enter mobile number
+</t>
+  </si>
+  <si>
+    <t>mobile number:9876543212</t>
+  </si>
+  <si>
+    <t>mobile number accept only 10
+digit number and will not accept characters
+and special characters.</t>
+  </si>
+  <si>
+    <t>verify that if password and confirm 
+password not same then it will show error password not matching.</t>
+  </si>
+  <si>
+    <t>verify that mobile number accept only 10 digit number and will not accept characters and special characters.</t>
+  </si>
+  <si>
+    <t>verify that mobile number accept number start with 9 ,8 and 7 number.</t>
+  </si>
+  <si>
+    <t>verify that mobile number will not accept number start without 9,8,and7.</t>
+  </si>
+  <si>
+    <t>mobile number will not accept number start without 9,8,and7.</t>
+  </si>
+  <si>
+    <t>mobile no:1234567891</t>
+  </si>
+  <si>
+    <t>mobile no:1234
+mobile no:12345678
+1233</t>
+  </si>
+  <si>
+    <t>verify that mobile number will not accept number which is less than 10 and greater than 10 .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mobile number will not accept number which is less than 10 and greater than 10 .</t>
+  </si>
+  <si>
+    <t>verify that if mobile no. left blank then it  will show error</t>
+  </si>
+  <si>
+    <t>mobile no:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> if mobile no. left blank then it  will show error</t>
+  </si>
+  <si>
+    <t>FUN/Email id</t>
+  </si>
+  <si>
+    <t>verify that email id field will accept 
+email id in emai format only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">click on add new tab.
+Enter email id
+</t>
+  </si>
+  <si>
+    <t>email id field will accept 
+email id in emai format only</t>
+  </si>
+  <si>
+    <t>email id:asd@gmail
+.com</t>
+  </si>
+  <si>
+    <t>verify that email id field will not accept email id without email id format.</t>
+  </si>
+  <si>
+    <t>email id:asd12</t>
+  </si>
+  <si>
+    <t>verify that if email id left blank then it 
+will not show any error it is not mandatory
+field</t>
+  </si>
+  <si>
+    <t>email id:</t>
+  </si>
+  <si>
+    <t>if email id left blank then it 
+will not show any error it is not mandatory
+field</t>
+  </si>
+  <si>
+    <t>FUN/Address 1 &amp; Address 2</t>
+  </si>
+  <si>
+    <t>Verify that adress 1 and adress 2 will 
+accept alpha numeric characters and 
+special characters .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">click on add new tab.
+Enter address 1 and address 2
+</t>
+  </si>
+  <si>
+    <t>address 1:f-123 bavdhan
+address 2:F-5 kothrud</t>
+  </si>
+  <si>
+    <t>adress 1 and adress 2 will 
+accept alpha numeric characters and 
+special characters .</t>
+  </si>
+  <si>
+    <t>verify that if address 1 and address 2 will
+left blank then it will show error.</t>
+  </si>
+  <si>
+    <t>address 1:
+address 2:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> if address 1 and address 2 will
+left blank then it will show error.</t>
+  </si>
+  <si>
+    <t>FUN/Area</t>
+  </si>
+  <si>
+    <t>verify that area will show drop-down list
+with options.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">click on add new tab.
+Click on drop-down list
+</t>
+  </si>
+  <si>
+    <t>verify that if area is not selected then 
+it will show error.</t>
+  </si>
+  <si>
+    <t>1.baner
+2.kothrud
+3.pashan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> if area is not selected then 
+it will show error.</t>
+  </si>
+  <si>
+    <t>FUN/city</t>
+  </si>
+  <si>
+    <t>verify that city will show  pune
+city and that will not be change or edit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">click on add new tab.
+</t>
+  </si>
+  <si>
+    <t>pune</t>
+  </si>
+  <si>
+    <t>TC27</t>
+  </si>
+  <si>
+    <t>FUN/pincode</t>
+  </si>
+  <si>
+    <t>verify that pin code will accept only 
+numbers not accept characters and 
+special characters.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">click on add new tab.
+Click on pincode 
+</t>
+  </si>
+  <si>
+    <t>pincode:123456</t>
+  </si>
+  <si>
+    <t>pin code will accept only 
+numbers not accept characters and 
+special characters.</t>
+  </si>
+  <si>
+    <t>verify that pincode field will only accept 
+6 digit.will not accept greater than 6 and 
+less than 6 .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pincode field will only accept 
+6 digit.will not accept greater than 6 and 
+less than 6 .</t>
+  </si>
+  <si>
+    <t>verify that if pin code field left blank
+then it will show error.</t>
+  </si>
+  <si>
+    <t>pincode:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> if pin code field left blank
+then it will show error.</t>
+  </si>
+  <si>
+    <t>TC28</t>
+  </si>
+  <si>
+    <t>TC29</t>
+  </si>
+  <si>
+    <t>TC30</t>
+  </si>
+  <si>
+    <t>FUN/state</t>
+  </si>
+  <si>
+    <t>verify that state field will contain maharashtra
+it will fix not change or edit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">click on add new tab.
+Click on state 
+</t>
+  </si>
+  <si>
+    <t>Maharashtra</t>
+  </si>
+  <si>
+    <t>TC31</t>
+  </si>
+  <si>
+    <t>FUN/status</t>
+  </si>
+  <si>
+    <t>verify that user click on status it will show
+drop-down list with options.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">click on add new tab.
+Click on status
+</t>
+  </si>
+  <si>
+    <t>1.active
+2.inactive
+3.pending</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> user click on status it will show
+drop-down list with options.</t>
+  </si>
+  <si>
+    <t>TC32</t>
+  </si>
+  <si>
+    <t>verify that if user not select any option  
+then it will show error.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.active
+</t>
+  </si>
+  <si>
+    <t>if user not select any option  
+then it will show error.</t>
+  </si>
+  <si>
+    <t>TC33</t>
+  </si>
+  <si>
+    <t>FUN/save info button</t>
+  </si>
+  <si>
+    <t>verify that if user enter all valid data and
+enter all mandatory data and click on 
+save info button then it will save information
+and goes to main page and pop-up message
+data updated successfully.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">click on add new tab.
+Enter all mandatory data
+</t>
+  </si>
+  <si>
+    <t>user Name:Shubhan
+UserType:CityAdmin
+password:Pass@123
+confirm password:Pass@123
+FullName:shubham kate
+mobile no:9876543212
+email id:asd@gmail.com
+Adress1:f-210 bavdhan
+address2:F5 dighi
+Area:Pashan
+pincode:411015
+state:Maharashtra
+status:Active</t>
+  </si>
+  <si>
+    <t>if user enter all valid data and
+enter all mandatory data and click on 
+save info button then it will save information
+and goes to main page and pop-up message
+data updated successfully.</t>
+  </si>
+  <si>
+    <t>TC34</t>
+  </si>
+  <si>
+    <t>verify that if user not enter mandatory data
+then click on save info button then it willnot save data.It will show error.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user Name:Shubhan
+UserType:CityAdmin
+password:Pass@123
+confirm password:Pass@123
+FullName:shubham kate
+mobile no:9876543212
+email id:asd@gmail.com
+Adress1:f-210 bavdhan
+</t>
+  </si>
+  <si>
+    <t>if user not enter mandatory data
+then click on save info button then it willnot save data.It will show error.</t>
+  </si>
+  <si>
+    <t>TC35</t>
+  </si>
+  <si>
+    <t>FUN/close button</t>
+  </si>
+  <si>
+    <t>verify that if user click on close button 
+then add/update page will be close.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">click on add new tab.
+Click on close button
+</t>
+  </si>
+  <si>
+    <t>click on add new tab.
+Enter all mandatory data
+click on save info button.</t>
+  </si>
+  <si>
+    <t>if user click on close button 
+then add/update page will be close.</t>
+  </si>
+  <si>
+    <t>TC36</t>
+  </si>
+  <si>
+    <t>FUN/Edit button</t>
+  </si>
+  <si>
+    <t>verify that user click on edit button then
+add/update form will open with previous data.</t>
+  </si>
+  <si>
+    <t>click on edit button.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> user click on edit button then
+add/update form will open with previous data.</t>
+  </si>
+  <si>
+    <t>TC37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FUN/mark as active </t>
+  </si>
+  <si>
+    <t>verify that user click on mark as active 
+then status will change to active.and it will
+pop-up error message data will be active.</t>
+  </si>
+  <si>
+    <t>mark as active button will be 
+active</t>
+  </si>
+  <si>
+    <t>click on mark as active button</t>
+  </si>
+  <si>
+    <t>user click on mark as active 
+then status will change to active.and it will
+pop-up error message data will be active.</t>
+  </si>
+  <si>
+    <t>TC38</t>
+  </si>
+  <si>
+    <t>FUN/mark as inactive</t>
+  </si>
+  <si>
+    <t>verify that user click on mark as inactive 
+then status will change to in active.and it will pop-up error message data will be inactive.</t>
+  </si>
+  <si>
+    <t>mark as inactive button will be inactive</t>
+  </si>
+  <si>
+    <t>click on mark as inactive button</t>
+  </si>
+  <si>
+    <t>user click on mark as inactive 
+then status will change to in active.and it will pop-up error message data will be inactive.</t>
+  </si>
+  <si>
+    <t>MODULE-MASTER</t>
+  </si>
+  <si>
+    <t>Module master page</t>
+  </si>
+  <si>
+    <t>verify that user click on user master info
+then user master info page will be open.
+It will show table which contain Module
+name,status and action.</t>
+  </si>
+  <si>
+    <t>User master info tab will be active.</t>
+  </si>
+  <si>
+    <t>click on user master info tab.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> user click on user master info
+then user master info page will be open.
+It will show table which contain Module
+name,status and action.</t>
+  </si>
+  <si>
+    <t>FUN/Add new button</t>
+  </si>
+  <si>
+    <t>verify that user click on add new button 
+then add/update user master info page
+will be open.</t>
+  </si>
+  <si>
+    <t>add new button will be active</t>
+  </si>
+  <si>
+    <t>click on add new button.</t>
+  </si>
+  <si>
+    <t>FUN/Module Name</t>
+  </si>
+  <si>
+    <t>vrify that module name will accept only 
+characters it will not accept number and
+special characters.</t>
+  </si>
+  <si>
+    <t>add new/update page will be 
+open.</t>
+  </si>
+  <si>
+    <t>click on add new button.
+Enter module name.</t>
+  </si>
+  <si>
+    <t>module name:vehicle</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> module name will accept only 
+characters it will not accept number and
+special characters.</t>
+  </si>
+  <si>
+    <t>verify that user click on status then status 
+will show drop-down list with options
+1.active
+2.Inactive
+3.pending</t>
+  </si>
+  <si>
+    <t>click on add new button.
+Click on status</t>
+  </si>
+  <si>
+    <t>user click on status then status 
+will show drop-down list with options
+1.active
+2.Inactive
+3.pending</t>
+  </si>
+  <si>
+    <t>verify that if enter valid data and click on
+save info then it will goes to main page
+and pop-up message data will be updated.</t>
+  </si>
+  <si>
+    <t>enter valid data.</t>
+  </si>
+  <si>
+    <t>module name:vehicle
+status:Active</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> if enter valid data and click on
+save info then it will goes to main page
+and pop-up message data will be updated.</t>
+  </si>
+  <si>
+    <t>verify that if user not enter mandatory data
+then it will show error and it will not save 
+data.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">module name:vehicle
+</t>
+  </si>
+  <si>
+    <t>if user not enter mandatory data
+then it will show error and it will not save 
+data.</t>
+  </si>
+  <si>
+    <t>verify that if user enter repeated data 
+and save info then it will not save again
+it will pop-up error message data is already
+exist.</t>
+  </si>
+  <si>
+    <t>enter data.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> if user enter repeated data 
+and save info then it will not save again
+it will pop-up error message data is already
+exist.</t>
+  </si>
+  <si>
+    <t>verify that user click on close button
+then add/update page will close.</t>
+  </si>
+  <si>
+    <t>click on close button</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> user click on close button
+then add/update page will close.</t>
+  </si>
+  <si>
+    <t>FUN/edit button</t>
+  </si>
+  <si>
+    <t>verify that user click on edit button 
+then add/update page will be open with
+previous data.</t>
+  </si>
+  <si>
+    <t>click on edit button</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> user click on edit button 
+then add/update page will be open with
+previous data.</t>
+  </si>
+  <si>
+    <t>verify that if user left blank any mandatory
+data then it will not updated it will show 
+error.</t>
+  </si>
+  <si>
+    <t>if user left blank any mandatory
+data then it will not updated it will show 
+error.</t>
+  </si>
+  <si>
+    <t>FUN/mark inactive</t>
+  </si>
+  <si>
+    <t>verify that user click on mark inactive
+then status will change to inactive.</t>
+  </si>
+  <si>
+    <t>mark inactive will be active</t>
+  </si>
+  <si>
+    <t>click on mark inactive button</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> user click on mark inactive
+then status will change to inactive.</t>
+  </si>
+  <si>
+    <t>FUN/mark active</t>
+  </si>
+  <si>
+    <t>verify that user click on mark active
+then status will change to active.</t>
+  </si>
+  <si>
+    <t>mark active will be active</t>
+  </si>
+  <si>
+    <t>click on mark active button</t>
+  </si>
+  <si>
+    <t>user click on mark active
+then status will change to active.</t>
+  </si>
+  <si>
+    <t>USER TYPE MODULE INFO</t>
+  </si>
+  <si>
+    <t>FUN User type module info
+page.</t>
+  </si>
+  <si>
+    <t>verify that user click on user type module 
+info then that page will get open with 
+table of user type,module,and status,
+action.</t>
+  </si>
+  <si>
+    <t>user type module info tab will
+be active</t>
+  </si>
+  <si>
+    <t>click on user type module info</t>
+  </si>
+  <si>
+    <t>user click on user type module 
+info then that page will get open with 
+table of user type,module,and status,
+action.</t>
+  </si>
+  <si>
+    <t>FUN add new button</t>
+  </si>
+  <si>
+    <t>verify that user click on add new button 
+then it will open add/update page.that
+page will contain 1.User type with drop
+-down list
+2.module with drop-down list
+3.status.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> user click on add new button 
+then it will open add/update page.that
+page will contain 1.User type with drop
+-down list
+2.module with drop-down list
+3.status.</t>
+  </si>
+  <si>
+    <t>verify that user click on user type then 
+it will show drop-down list with various
+options like city admin,karyakarta</t>
+  </si>
+  <si>
+    <t>add new/update page will be 
+open</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> user click on user type then 
+it will show drop-down list with various
+options like city admin,karyakarta</t>
+  </si>
+  <si>
+    <t>click on user type drop-down
+list.</t>
+  </si>
+  <si>
+    <t>verify that user select any option from 
+drop-down list then that option will be display on user type.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">city-admin </t>
+  </si>
+  <si>
+    <t>user select any option from 
+drop-down list then that option will be display on user type.</t>
+  </si>
+  <si>
+    <t>verify that if user not select any option
+then it will show error.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> if user not select any option
+then it will show error.</t>
+  </si>
+  <si>
+    <t>FUN/Module</t>
+  </si>
+  <si>
+    <t>verify that module will show drop-down 
+list with options .</t>
+  </si>
+  <si>
+    <t>click on module type drop-down list.</t>
+  </si>
+  <si>
+    <t>module will show drop-down 
+list with options .</t>
+  </si>
+  <si>
+    <t>verify that user select any option from 
+drop-down list then that option will be display on module.</t>
+  </si>
+  <si>
+    <t>GPS info</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> user select any option from 
+drop-down list then that option will be display on module.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  if module not select any option
+then it will show error.</t>
+  </si>
+  <si>
+    <t>FUN/Status</t>
+  </si>
+  <si>
+    <t>verify that user  click on status then it will show drop-down list with options.
+1.active
+2.inactive
+3.pending</t>
+  </si>
+  <si>
+    <t>click on status type drop-down list.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> user  click on status then it will show drop-down list with options.
+1.active
+2.inactive
+3.pending</t>
+  </si>
+  <si>
+    <t>verify that user select any option from 
+drop-down list then that option will be display on status.</t>
+  </si>
+  <si>
+    <t>click on status type drop-down list.
+Select 1 option</t>
+  </si>
+  <si>
+    <t>1.active</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> user select any option from 
+drop-down list then that option will be display on status.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> verify that if  user  not select any option then it will show error.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> if  user  not select any option then it will show error.</t>
+  </si>
+  <si>
+    <t>verify that user enter all valid data then
+click on save info button then information 
+will be save and pop up message data 
+updated successfully.</t>
+  </si>
+  <si>
+    <t>User Type:city admin
+module:Area info
+status:active</t>
+  </si>
+  <si>
+    <t>enter all valid data.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> user enter all valid data then
+click on save info button then information 
+will be save and pop up message data 
+updated successfully.</t>
+  </si>
+  <si>
+    <t>verify that user not enter all data keep left any field then click on save button 
+then that data will not save and show error.</t>
+  </si>
+  <si>
+    <t>add new/update page will be 
+open
+save info button will be active</t>
+  </si>
+  <si>
+    <t>enter data</t>
+  </si>
+  <si>
+    <t>User Type:city admin
+module:Area info
+status:a</t>
+  </si>
+  <si>
+    <t>user not enter all data keep left any field then click on save button 
+then that data will not save and show error.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> if user enter repeted data then
+it will not accept that data and show error 
+message data is already exist.</t>
+  </si>
+  <si>
+    <t>verify that if user enter repeted data then it will not accept that data and show error message data is already exist.</t>
+  </si>
+  <si>
+    <t>verify that if user enter all valid data and
+click on save info then that information 
+will display on table.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> if user enter all valid data and
+click on save info then that information 
+will display on table.</t>
+  </si>
+  <si>
+    <t>verify that if user click on close button
+then it will close add/update page.</t>
+  </si>
+  <si>
+    <t>close button will be active</t>
+  </si>
+  <si>
+    <t>if user click on close button
+then it will close add/update page.</t>
+  </si>
+  <si>
+    <t>Action Master</t>
+  </si>
+  <si>
+    <t>FUN/action info page</t>
+  </si>
+  <si>
+    <t>verify that if user click on action info page
+then that page will get open.</t>
+  </si>
+  <si>
+    <t>action info tab will be active</t>
+  </si>
+  <si>
+    <t>click on action info tab</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> if user click on action info page
+then that page will get open.</t>
+  </si>
+  <si>
+    <t>verify that if user click on add new button 
+then add/update page will be open
+that page will contain 1.module action 
+name with place holder.
+2.action description
+3.status with drop-down list.</t>
+  </si>
+  <si>
+    <t>add new button will be active.</t>
+  </si>
+  <si>
+    <t>click on add new button</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> if user click on add new button 
+then add/update page will be open
+that page will contain 1.module action 
+name with place holder.
+2.action description
+3.status with drop-down list.</t>
+  </si>
+  <si>
+    <t>FUN/Module action name</t>
+  </si>
+  <si>
+    <t>verify that module action name will accept
+only characters it will not accept numbers
+and special characters.</t>
+  </si>
+  <si>
+    <t>add/update page will be open.</t>
+  </si>
+  <si>
+    <t>enter module action name.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">module action name:
+User </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> module action name will accept
+only characters it will not accept numbers
+and special characters.</t>
+  </si>
+  <si>
+    <t>verify that if user enter number and 
+special characters then it will show error.</t>
+  </si>
+  <si>
+    <t>module action name:User@1243</t>
+  </si>
+  <si>
+    <t>verify  if user enter number and special characters then it will show error.</t>
+  </si>
+  <si>
+    <t>verify that if user left blank that field then
+it will show error.</t>
+  </si>
+  <si>
+    <t>module action name:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> if user left blank that field then it will show error.</t>
+  </si>
+  <si>
+    <t>FUN/Action Description</t>
+  </si>
+  <si>
+    <t>enter module action description.</t>
+  </si>
+  <si>
+    <t>Action description:
+vehicle@1234</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Action description will accept
+alpha numeric characters and also accept
+special characters.</t>
+  </si>
+  <si>
+    <t>verify that Action description will accept
+alpha numeric characters and also accept special characters.</t>
+  </si>
+  <si>
+    <t>verify that if user not enter any action 
+description then it will not show any 
+error it is not mandatory field.</t>
+  </si>
+  <si>
+    <t>enter action description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action description:
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> if user not enter any action 
+description then it will not show any 
+error it is not mandatory field.</t>
+  </si>
+  <si>
+    <t>click on status</t>
+  </si>
+  <si>
+    <t>verify that user click on status it will
+open drop-down list with option
+1.active
+2.Inactive
+3.pending</t>
+  </si>
+  <si>
+    <t>verify that if user select one option from
+drop-down list then status will display 
+that option.</t>
+  </si>
+  <si>
+    <t>click on status.
+Select option from drop-down list</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> if user select one option from
+drop-down list then status will display 
+that option.</t>
+  </si>
+  <si>
+    <t>verify that user not select any option 
+from drop-down list then it will show 
+error because it is mandatory field.</t>
+  </si>
+  <si>
+    <t>verify that if user enter all valid and 
+mandatory data and then click on save
+that data will be save and pop-up message 
+data updated successfully.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> if user enter all valid and 
+mandatory data and then click on save
+that data will be save and pop-up message 
+data updated successfully.</t>
+  </si>
+  <si>
+    <t>module action name:
+vehicle
+action description:
+route vehicle
+status:active</t>
+  </si>
+  <si>
+    <t>verify that if user enter repeted data then
+it will not accept repeted data it will show
+error message data is already exist.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> if user enter repeted data then
+it will not accept repeted data it will show
+error message data is already exist.</t>
+  </si>
+  <si>
+    <t>verify that if user not enter any mandatory
+data and then save it ,it will not save 
+and show error.</t>
+  </si>
+  <si>
+    <t>module action name:
+vehicle
+action description:
+route vehicle
+status:</t>
+  </si>
+  <si>
+    <t>verify that user click on edit button then
+add/update page will be open with 
+previous data.</t>
+  </si>
+  <si>
+    <t>edit button will be active</t>
+  </si>
+  <si>
+    <t>user click on edit button then
+add/update page will be open with 
+previous data.</t>
+  </si>
+  <si>
+    <t>verify that if user edit data and save  it 
+then edit data will be save and display in
+table.</t>
+  </si>
+  <si>
+    <t>FUN/mark as active button</t>
+  </si>
+  <si>
+    <t>verify that if user click on mark as active
+then status will change to active.</t>
+  </si>
+  <si>
+    <t>click on mark as active.</t>
+  </si>
+  <si>
+    <t>if user click on mark as active
+then status will change to active.</t>
+  </si>
+  <si>
+    <t>FUN/mark as inactive button</t>
+  </si>
+  <si>
+    <t>verify that if user click on mark as inactive
+then status will change to active.</t>
+  </si>
+  <si>
+    <t>mark as inactive button will be active</t>
+  </si>
+  <si>
+    <t>click on mark as inactive.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> if user click on mark as inactive
+then status will change to active.</t>
+  </si>
+  <si>
+    <t>FOR HOUSEHOLD MASTER</t>
+  </si>
+  <si>
+    <t>FUN/household info page</t>
+  </si>
+  <si>
+    <t>verify that user click on household info
+tab then household page will be open.</t>
+  </si>
+  <si>
+    <t>household info tab will be active.</t>
+  </si>
+  <si>
+    <t>click on household info tab.</t>
+  </si>
+  <si>
+    <t>verify that user click on add new button 
+then add/update house hold info page 
+will be open and it show 1.ward no. and
+area with drop-down list.
+2.Adress 1 and address 2 with placeholder.
+3 city will display pune.
+4 pincode with placeholder.
+5.state will display maharashtra.
+6 latitude and longitude with placeholder.
+7 contact person name,mobile no,and email id with placeholder.
+8 valid from and valid to.
+9 status with drop-down list.</t>
+  </si>
+  <si>
+    <t>add new botton will be active.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> user click on add new button 
+then add/update house hold info page 
+will be open and it show 1.ward no. and
+area with drop-down list.
+2.Adress 1 and address 2 with placeholder.
+3 city will display pune.
+4 pincode with placeholder.
+5.state will display maharashtra.
+6 latitude and longitude with placeholder.
+7 contact person name,mobile no,and email id with placeholder.
+8 valid from and valid to.
+9 status with drop-down list.</t>
+  </si>
+  <si>
+    <t>verify that if user click on ward then it will
+show drop-down list with options of ward.</t>
+  </si>
+  <si>
+    <t>add/update household information
+page will be open.</t>
+  </si>
+  <si>
+    <t>click on ward.</t>
+  </si>
+  <si>
+    <t>Ward A 01
+Ward B 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FUN/ward no. </t>
+  </si>
+  <si>
+    <t>verify that if user click on area then it willshow drop-down list with options of area.</t>
+  </si>
+  <si>
+    <t>click on area</t>
+  </si>
+  <si>
+    <t>Baner
+Pashan</t>
+  </si>
+  <si>
+    <t>if user click on area then it willshow drop-down list with options of area.</t>
+  </si>
+  <si>
+    <t>FUN/ward  no. and Area</t>
+  </si>
+  <si>
+    <t>verify that user not select any option 
+from ward no. and area then it will show 
+error because it is mandatory field.</t>
+  </si>
+  <si>
+    <t>click on area and ward no.</t>
+  </si>
+  <si>
+    <t>verify that if user select any option from
+ward no. and area then that option will
+be display</t>
+  </si>
+  <si>
+    <t>click on area and ward no.
+select one option.</t>
+  </si>
+  <si>
+    <t>ward no:Ward A01
+area:Pashan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> if user select any option from
+ward no. and area then that option will
+be display</t>
+  </si>
+  <si>
+    <t>FUN/Address 1 and address 2</t>
+  </si>
+  <si>
+    <t>verify that address 1 and address 2 will
+accept alpha numeric characters and 
+special characters also.</t>
+  </si>
+  <si>
+    <t>enter address 1 and address2</t>
+  </si>
+  <si>
+    <t>Address1:f-201 dighi
+address2:f-504 wakad</t>
+  </si>
+  <si>
+    <t>address 1 and address 2 will
+accept alpha numeric characters and 
+special characters also.</t>
+  </si>
+  <si>
+    <t>Address1:
+address2:f-</t>
+  </si>
+  <si>
+    <t>verify that if user not enter address 1 and address 2 .left blank then it will show error because it is mandatory field.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> if user not enter address 1 and address 2 .left blank then it will show error because it is mandatory field.</t>
+  </si>
+  <si>
+    <t>FUN/city and state</t>
+  </si>
+  <si>
+    <t>verify that city will show bydefault pune
+state will show maharashtra.</t>
+  </si>
+  <si>
+    <t>click on city and state.</t>
+  </si>
+  <si>
+    <t>city will show bydefault pune
+state will show maharashtra.</t>
+  </si>
+  <si>
+    <t>city:Pune
+state:Maharashtra</t>
+  </si>
+  <si>
+    <t>verify that pincode will accept only 6 digit
+number.It will not accept characters and 
+special characters.</t>
+  </si>
+  <si>
+    <t>enter pincode</t>
+  </si>
+  <si>
+    <t>pincode:411015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pincode will accept only 6 digit
+number.It will not accept characters and 
+special characters.</t>
+  </si>
+  <si>
+    <t>pincode:123567899
+pincode:123</t>
+  </si>
+  <si>
+    <t>verify that pin code will not accept value
+greater than 6 and less than 6.it will show error.</t>
+  </si>
+  <si>
+    <t>pin code will not accept value
+greater than 6 and less than 6.it will show error.</t>
+  </si>
+  <si>
+    <t>verify that user not enter pincode then 
+it will show error because it is mandatory
+field.</t>
+  </si>
+  <si>
+    <t>FUN/lattitude and longitude</t>
+  </si>
+  <si>
+    <t>verify that latitude and longitude will 
+accept only number it will not accept 
+characters and special characters.</t>
+  </si>
+  <si>
+    <t>enter latitude and longitude</t>
+  </si>
+  <si>
+    <t>latitude:12.3456
+longitude:12.9087</t>
+  </si>
+  <si>
+    <t>latitude and longitude will 
+accept only number it will not accept 
+characters and special characters.</t>
+  </si>
+  <si>
+    <t>latitude:
+longitude:</t>
+  </si>
+  <si>
+    <t>verify that latitude and longitude will left blank or not enter then it will show error because it is mandatory field.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> latitude and longitude will left blank or not enter then it will show error because it is mandatory field.</t>
+  </si>
+  <si>
+    <t>FUN/Contact Person</t>
+  </si>
+  <si>
+    <t>verify that contact person will accept only characters it will not accept number
+and special characters.</t>
+  </si>
+  <si>
+    <t>enter contact person</t>
+  </si>
+  <si>
+    <t>contact person:wagh</t>
+  </si>
+  <si>
+    <t>contact person will accept only characters it will not accept number
+and special characters.</t>
+  </si>
+  <si>
+    <t>verify that user not enter user name left 
+blank then it will show error please 
+enter user name.</t>
+  </si>
+  <si>
+    <t>contact person:</t>
+  </si>
+  <si>
+    <t>user not enter user name left 
+blank then it will show error please 
+enter user name.</t>
+  </si>
+  <si>
+    <t>FUN/Mobile no.</t>
+  </si>
+  <si>
+    <t>verify that mobile number will only accept 10 digit number.it will not accept less than 10 or greater than 10</t>
+  </si>
+  <si>
+    <t>enter mobile no.</t>
+  </si>
+  <si>
+    <t>mobile no:9876543212</t>
+  </si>
+  <si>
+    <t>mobile number will only accept 10 digit number.it will not accept less than 10 or greater than 10</t>
+  </si>
+  <si>
+    <t>mobile no:ade@qwe12</t>
+  </si>
+  <si>
+    <t>mobile number will not accept
+characters and special characters.</t>
+  </si>
+  <si>
+    <t>verify that mobile number will not accept characters and special characters.</t>
+  </si>
+  <si>
+    <t>verify that mobile no. will only accept 
+number which is start from 9,8,7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mobile no. will only accept 
+number which is start from 9,8,7</t>
+  </si>
+  <si>
+    <t>verify that if mobile no. will not enter or 
+left blank then it will show error.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> if mobile no. will not enter or 
+left blank then it will show error.</t>
+  </si>
+  <si>
+    <t>FUN/valid from and valid to
+date.</t>
+  </si>
+  <si>
+    <t>verify that if user click on valid from then
+calender will get open.</t>
+  </si>
+  <si>
+    <t>click on valid from</t>
+  </si>
+  <si>
+    <t>if user click on valid from then
+calender will get open.</t>
+  </si>
+  <si>
+    <t>verify that if user select any date from valid
+from and valid to then it will be display.</t>
+  </si>
+  <si>
+    <t>valid from:1/1/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> if user select any date from valid
+from and valid to then it will be display.</t>
   </si>
 </sst>
 </file>
@@ -1040,7 +2562,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1069,6 +2591,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1364,10 +2889,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L55"/>
+  <dimension ref="A1:L168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B55" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" topLeftCell="B163" workbookViewId="0">
+      <selection activeCell="B168" sqref="B168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1461,7 +2986,7 @@
     </row>
     <row r="7" spans="1:12" ht="15.75">
       <c r="D7" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="45">
@@ -1567,7 +3092,7 @@
       <c r="C11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="5" t="s">
         <v>43</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -1597,19 +3122,19 @@
         <v>48</v>
       </c>
       <c r="D12" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="F12" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="G12" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="H12" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>26</v>
@@ -1620,25 +3145,25 @@
     </row>
     <row r="13" spans="1:12" ht="60">
       <c r="B13" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="E13" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="F13" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="G13" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="H13" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>60</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>26</v>
@@ -1649,25 +3174,25 @@
     </row>
     <row r="14" spans="1:12" ht="75">
       <c r="B14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" s="5" t="s">
+      <c r="G14" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="H14" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>26</v>
@@ -1678,25 +3203,25 @@
     </row>
     <row r="15" spans="1:12" ht="60">
       <c r="B15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="3" t="s">
+      <c r="E15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" s="5" t="s">
+      <c r="H15" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>26</v>
@@ -1707,25 +3232,25 @@
     </row>
     <row r="16" spans="1:12" ht="90">
       <c r="B16" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="3" t="s">
+      <c r="G16" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F16" s="5" t="s">
+      <c r="H16" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>26</v>
@@ -1736,25 +3261,25 @@
     </row>
     <row r="17" spans="1:10" ht="105">
       <c r="B17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="3" t="s">
+      <c r="F17" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="G17" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="H17" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>82</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>26</v>
@@ -1765,25 +3290,25 @@
     </row>
     <row r="18" spans="1:10" ht="75">
       <c r="B18" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="5" t="s">
+      <c r="F18" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="G18" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="H18" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>88</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>26</v>
@@ -1794,25 +3319,25 @@
     </row>
     <row r="19" spans="1:10" ht="75">
       <c r="B19" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="5" t="s">
+      <c r="G19" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F19" s="5" t="s">
+      <c r="H19" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>93</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>26</v>
@@ -1823,25 +3348,25 @@
     </row>
     <row r="20" spans="1:10" ht="75">
       <c r="B20" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>96</v>
-      </c>
       <c r="G20" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>26</v>
@@ -1855,7 +3380,7 @@
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
       <c r="D22" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
@@ -1869,19 +3394,19 @@
         <v>20</v>
       </c>
       <c r="C23" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E23" s="5" t="s">
+      <c r="H23" s="5" t="s">
         <v>100</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>102</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>26</v>
@@ -1895,19 +3420,19 @@
         <v>28</v>
       </c>
       <c r="C24" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="E24" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="H24" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>107</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>26</v>
@@ -1921,19 +3446,19 @@
         <v>34</v>
       </c>
       <c r="C25" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="F25" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="H25" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>112</v>
       </c>
       <c r="I25" s="4" t="s">
         <v>26</v>
@@ -1947,19 +3472,19 @@
         <v>42</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D26" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="H26" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>26</v>
@@ -1973,22 +3498,22 @@
         <v>47</v>
       </c>
       <c r="C27" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F27" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="G27" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F27" s="5" t="s">
+      <c r="H27" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>120</v>
       </c>
       <c r="I27" s="4" t="s">
         <v>26</v>
@@ -1999,25 +3524,25 @@
     </row>
     <row r="28" spans="1:10" ht="75">
       <c r="B28" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C28" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F28" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="G28" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="H28" s="5" t="s">
         <v>122</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>124</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>26</v>
@@ -2028,22 +3553,22 @@
     </row>
     <row r="29" spans="1:10" ht="75">
       <c r="B29" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C29" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F29" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>118</v>
-      </c>
       <c r="H29" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>26</v>
@@ -2054,22 +3579,22 @@
     </row>
     <row r="30" spans="1:10" ht="75">
       <c r="B30" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C30" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>118</v>
-      </c>
       <c r="H30" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>26</v>
@@ -2080,25 +3605,25 @@
     </row>
     <row r="31" spans="1:10" ht="75">
       <c r="B31" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C31" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E31" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="F31" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="G31" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="H31" s="5" t="s">
         <v>132</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>134</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>26</v>
@@ -2109,22 +3634,22 @@
     </row>
     <row r="32" spans="1:10" ht="75">
       <c r="B32" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C32" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E32" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D32" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>131</v>
-      </c>
       <c r="F32" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I32" s="4" t="s">
         <v>26</v>
@@ -2135,25 +3660,25 @@
     </row>
     <row r="33" spans="2:10" ht="105">
       <c r="B33" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C33" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F33" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="G33" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="H33" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>142</v>
       </c>
       <c r="I33" s="4" t="s">
         <v>26</v>
@@ -2164,25 +3689,25 @@
     </row>
     <row r="34" spans="2:10" ht="60">
       <c r="B34" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C34" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F34" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="G34" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="H34" s="5" t="s">
         <v>143</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>145</v>
       </c>
       <c r="I34" s="4" t="s">
         <v>26</v>
@@ -2193,22 +3718,22 @@
     </row>
     <row r="35" spans="2:10" ht="60">
       <c r="B35" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C35" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F35" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>139</v>
-      </c>
       <c r="H35" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I35" s="4" t="s">
         <v>26</v>
@@ -2219,25 +3744,25 @@
     </row>
     <row r="36" spans="2:10" ht="105">
       <c r="B36" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="E36" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="F36" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="G36" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="H36" s="5" t="s">
         <v>152</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>154</v>
       </c>
       <c r="I36" s="4" t="s">
         <v>26</v>
@@ -2248,25 +3773,25 @@
     </row>
     <row r="37" spans="2:10" ht="75">
       <c r="B37" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E37" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D37" s="3" t="s">
+      <c r="F37" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="G37" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="H37" s="5" t="s">
         <v>158</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>160</v>
       </c>
       <c r="I37" s="4" t="s">
         <v>26</v>
@@ -2277,25 +3802,25 @@
     </row>
     <row r="38" spans="2:10" ht="120">
       <c r="B38" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="H38" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>163</v>
       </c>
       <c r="I38" s="4" t="s">
         <v>26</v>
@@ -2306,22 +3831,22 @@
     </row>
     <row r="39" spans="2:10" ht="60">
       <c r="B39" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D39" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="E39" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="F39" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="D39" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>167</v>
-      </c>
       <c r="H39" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I39" s="4" t="s">
         <v>26</v>
@@ -2332,45 +3857,45 @@
     </row>
     <row r="40" spans="2:10" ht="165">
       <c r="B40" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D40" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="E40" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="F40" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="H40" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="I40" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="E40" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="F40" s="5" t="s">
+      <c r="J40" s="14" t="s">
         <v>171</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="J40" s="14" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="41" spans="2:10" ht="60">
       <c r="B41" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D41" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="E41" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="D41" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="E41" s="5" t="s">
+      <c r="H41" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>179</v>
       </c>
       <c r="I41" s="4" t="s">
         <v>26</v>
@@ -2381,22 +3906,22 @@
     </row>
     <row r="42" spans="2:10" ht="45">
       <c r="B42" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="E42" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="F42" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="H42" s="5" t="s">
         <v>183</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>185</v>
       </c>
       <c r="I42" s="4" t="s">
         <v>26</v>
@@ -2407,22 +3932,22 @@
     </row>
     <row r="43" spans="2:10" ht="60">
       <c r="B43" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E43" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>188</v>
-      </c>
       <c r="F43" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I43" s="4" t="s">
         <v>26</v>
@@ -2433,22 +3958,22 @@
     </row>
     <row r="44" spans="2:10" ht="45">
       <c r="B44" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="H44" s="3" t="s">
         <v>189</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>191</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>26</v>
@@ -2459,22 +3984,22 @@
     </row>
     <row r="45" spans="2:10" ht="75">
       <c r="B45" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="H45" s="5" t="s">
         <v>192</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>194</v>
       </c>
       <c r="I45" s="4" t="s">
         <v>26</v>
@@ -2485,22 +4010,22 @@
     </row>
     <row r="46" spans="2:10" ht="90">
       <c r="B46" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="D46" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E46" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="D46" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>199</v>
-      </c>
       <c r="F46" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I46" s="4" t="s">
         <v>26</v>
@@ -2511,22 +4036,22 @@
     </row>
     <row r="47" spans="2:10" ht="75">
       <c r="B47" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D47" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="C47" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="D47" s="5" t="s">
+      <c r="E47" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="F47" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="H47" s="5" t="s">
         <v>204</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="H47" s="5" t="s">
-        <v>206</v>
       </c>
       <c r="I47" s="4" t="s">
         <v>26</v>
@@ -2537,31 +4062,31 @@
     </row>
     <row r="48" spans="2:10" ht="60">
       <c r="B48" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D48" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="E48" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="F48" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="G48" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="E48" s="5" t="s">
+      <c r="H48" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="F48" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="G48" s="5" t="s">
+      <c r="I48" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>213</v>
-      </c>
       <c r="J48" s="14" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="15.75">
@@ -2569,7 +4094,7 @@
       <c r="B50" s="15"/>
       <c r="C50" s="15"/>
       <c r="D50" s="12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E50" s="15"/>
       <c r="F50" s="15"/>
@@ -2580,19 +4105,19 @@
         <v>20</v>
       </c>
       <c r="C52" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="E52" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="F52" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="E52" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>218</v>
-      </c>
       <c r="H52" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I52" s="4" t="s">
         <v>26</v>
@@ -2606,19 +4131,19 @@
         <v>28</v>
       </c>
       <c r="C53" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="H53" s="5" t="s">
         <v>219</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="H53" s="5" t="s">
-        <v>221</v>
       </c>
       <c r="I53" s="4" t="s">
         <v>26</v>
@@ -2632,22 +4157,22 @@
         <v>34</v>
       </c>
       <c r="C54" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E54" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="F54" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="E54" s="4" t="s">
+      <c r="G54" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="F54" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>226</v>
-      </c>
       <c r="H54" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="I54" s="4" t="s">
         <v>26</v>
@@ -2661,28 +4186,2909 @@
         <v>42</v>
       </c>
       <c r="C55" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="E55" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="F55" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="H55" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="E55" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>229</v>
-      </c>
       <c r="I55" s="4" t="s">
         <v>26</v>
       </c>
       <c r="J55" s="4" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="45">
+      <c r="B56" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="60">
+      <c r="B57" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="75">
+      <c r="B58" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J58" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="90">
+      <c r="B59" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J59" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="90">
+      <c r="B60" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J60" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="60">
+      <c r="B61" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J61" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="75">
+      <c r="B62" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J62" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="60">
+      <c r="B63" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J63" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="45">
+      <c r="B64" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J64" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" ht="75">
+      <c r="B65" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J65" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" ht="45">
+      <c r="B66" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J66" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" ht="45">
+      <c r="B67" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J67" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" ht="60">
+      <c r="B68" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="I68" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J68" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10" ht="45">
+      <c r="B69" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J69" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" ht="45">
+      <c r="B70" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J70" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10" ht="45">
+      <c r="B71" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="I71" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J71" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10" ht="60">
+      <c r="B72" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="I72" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J72" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10" ht="60">
+      <c r="B73" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J73" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10" ht="60">
+      <c r="B74" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J74" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10" ht="45">
+      <c r="B75" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J75" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10" ht="45">
+      <c r="B76" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J76" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="77" spans="2:10" ht="60">
+      <c r="B77" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J77" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10" ht="60">
+      <c r="B78" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J78" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10" ht="75">
+      <c r="B79" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="H79" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="I79" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J79" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="80" spans="2:10" ht="60">
+      <c r="B80" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="H80" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="I80" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J80" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10" ht="60">
+      <c r="B81" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="H81" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="I81" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J81" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10" ht="60">
+      <c r="B82" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="H82" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="I82" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J82" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10" ht="60">
+      <c r="B83" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="H83" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J83" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="84" spans="2:10" ht="330">
+      <c r="B84" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="H84" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="I84" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J84" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="85" spans="2:10" ht="270">
+      <c r="B85" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="H85" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="I85" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J85" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="86" spans="2:10" ht="60">
+      <c r="B86" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="H86" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="I86" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J86" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="87" spans="2:10" ht="60">
+      <c r="B87" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="H87" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="I87" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J87" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="88" spans="2:10" ht="75">
+      <c r="B88" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="I88" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J88" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="89" spans="2:10" ht="75">
+      <c r="B89" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="H89" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="I89" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J89" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="91" spans="2:10" ht="15.75">
+      <c r="B91" s="15"/>
+      <c r="C91" s="15"/>
+      <c r="D91" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="E91" s="15"/>
+      <c r="F91" s="15"/>
+      <c r="G91" s="15"/>
+      <c r="H91" s="15"/>
+    </row>
+    <row r="93" spans="2:10" ht="105">
+      <c r="B93" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="H93" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="I93" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J93" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="94" spans="2:10" ht="75">
+      <c r="B94" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="H94" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="I94" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J94" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="95" spans="2:10" ht="75">
+      <c r="B95" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="H95" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="I95" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J95" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="96" spans="2:10" ht="105">
+      <c r="B96" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="H96" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="I96" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J96" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="90">
+      <c r="B97" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="G97" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="H97" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="I97" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J97" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="75">
+      <c r="B98" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="I98" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J98" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="90">
+      <c r="B99" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="H99" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="I99" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J99" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="45">
+      <c r="B100" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="H100" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="I100" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J100" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="60">
+      <c r="B101" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="H101" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="I101" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J101" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="75">
+      <c r="B102" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="I102" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J102" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="45">
+      <c r="B103" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="H103" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="I103" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J103" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="45">
+      <c r="B104" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="H104" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="I104" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J104" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="15.75">
+      <c r="A106" s="15"/>
+      <c r="B106" s="15"/>
+      <c r="C106" s="15"/>
+      <c r="D106" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="E106" s="15"/>
+      <c r="F106" s="15"/>
+      <c r="G106" s="15"/>
+      <c r="H106" s="15"/>
+      <c r="I106" s="15"/>
+      <c r="J106" s="15"/>
+    </row>
+    <row r="107" spans="1:10" ht="105">
+      <c r="B107" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="G107" s="4"/>
+      <c r="H107" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="I107" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J107" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="120">
+      <c r="B108" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="H108" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="I108" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J108" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="75">
+      <c r="B109" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="G109" s="4"/>
+      <c r="H109" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="I109" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J109" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="60">
+      <c r="B110" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="I110" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J110" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="45">
+      <c r="B111" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="H111" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="I111" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J111" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="45">
+      <c r="B112" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="H112" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="I112" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J112" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="113" spans="2:10" ht="60">
+      <c r="B113" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="G113" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="H113" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="I113" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J113" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="114" spans="2:10" ht="45">
+      <c r="B114" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="H114" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="I114" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J114" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="115" spans="2:10" ht="90">
+      <c r="B115" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="H115" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="I115" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J115" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="116" spans="2:10" ht="60">
+      <c r="B116" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="F116" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="G116" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="H116" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="I116" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J116" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="117" spans="2:10" ht="45">
+      <c r="B117" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="E117" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="F117" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="H117" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="I117" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J117" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="118" spans="2:10" ht="90">
+      <c r="B118" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="G118" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="H118" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="I118" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J118" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="119" spans="2:10" ht="75">
+      <c r="B119" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="F119" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="G119" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="H119" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="I119" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J119" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="120" spans="2:10" ht="75">
+      <c r="B120" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="F120" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="G120" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="H120" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="I120" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J120" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="121" spans="2:10" ht="75">
+      <c r="B121" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="F121" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="G121" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="H121" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="I121" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J121" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="122" spans="2:10" ht="45">
+      <c r="B122" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="F122" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="H122" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="I122" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J122" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="123" spans="2:10">
+      <c r="B123" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="124" spans="2:10" ht="15.75">
+      <c r="B124" s="15"/>
+      <c r="C124" s="15"/>
+      <c r="D124" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="E124" s="15"/>
+      <c r="F124" s="15"/>
+      <c r="G124" s="15"/>
+      <c r="H124" s="15"/>
+    </row>
+    <row r="126" spans="2:10" ht="45">
+      <c r="B126" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="H126" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="I126" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J126" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="127" spans="2:10" ht="135">
+      <c r="B127" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="H127" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="I127" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J127" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="128" spans="2:10" ht="75">
+      <c r="B128" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="G128" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="H128" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="I128" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J128" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" ht="45">
+      <c r="B129" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="G129" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="H129" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="I129" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J129" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" ht="45">
+      <c r="B130" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="G130" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="H130" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="I130" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J130" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" ht="60">
+      <c r="B131" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="G131" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="H131" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="I131" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J131" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" ht="75">
+      <c r="B132" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="G132" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="H132" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="I132" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J132" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" ht="105">
+      <c r="B133" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="H133" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="I133" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J133" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" ht="75">
+      <c r="B134" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="F134" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="H134" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="I134" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J134" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" ht="90">
+      <c r="B135" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="H135" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="I135" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J135" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" ht="90">
+      <c r="B136" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="F136" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="G136" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="H136" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="I136" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J136" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" ht="90">
+      <c r="B137" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="G137" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="H137" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="I137" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J137" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" ht="90">
+      <c r="B138" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="F138" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="G138" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="H138" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="I138" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J138" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" ht="60">
+      <c r="B139" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="H139" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="I139" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J139" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" ht="75">
+      <c r="B140" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="F140" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="H140" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="I140" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J140" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" ht="45">
+      <c r="B141" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="E141" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="F141" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="H141" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="I141" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J141" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" ht="60">
+      <c r="B142" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="E142" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="F142" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="H142" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="I142" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J142" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" ht="15.75">
+      <c r="A144" s="15"/>
+      <c r="B144" s="15"/>
+      <c r="C144" s="15"/>
+      <c r="D144" s="16" t="s">
+        <v>522</v>
+      </c>
+      <c r="E144" s="15"/>
+      <c r="F144" s="15"/>
+      <c r="G144" s="15"/>
+      <c r="H144" s="15"/>
+      <c r="I144" s="15"/>
+      <c r="J144" s="15"/>
+    </row>
+    <row r="146" spans="2:10" ht="60">
+      <c r="B146" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="D146" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="F146" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="H146" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="I146" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J146" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="147" spans="2:10" ht="285">
+      <c r="B147" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="D147" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="F147" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="G147" s="4"/>
+      <c r="H147" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="I147" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J147" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="148" spans="2:10" ht="60">
+      <c r="B148" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="E148" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="F148" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="G148" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="H148" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="I148" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J148" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="149" spans="2:10" ht="45">
+      <c r="B149" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="D149" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="E149" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="F149" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="G149" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="H149" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="I149" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J149" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="150" spans="2:10" ht="90">
+      <c r="B150" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="D150" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="E150" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="F150" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="H150" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="I150" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J150" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="151" spans="2:10" ht="60">
+      <c r="B151" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="D151" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="E151" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="F151" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="G151" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="H151" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="I151" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J151" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="152" spans="2:10" ht="60">
+      <c r="B152" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="D152" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="E152" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="F152" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="G152" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="H152" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="I152" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J152" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="153" spans="2:10" ht="60">
+      <c r="B153" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="E153" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="F153" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="G153" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="H153" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="I153" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J153" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="154" spans="2:10" ht="45">
+      <c r="B154" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="D154" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="E154" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="F154" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="G154" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="H154" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="I154" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J154" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="155" spans="2:10" ht="75">
+      <c r="B155" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="D155" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="E155" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="F155" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="G155" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="H155" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="I155" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J155" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="156" spans="2:10" ht="60">
+      <c r="B156" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="D156" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="E156" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="F156" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="G156" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="H156" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="I156" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J156" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="157" spans="2:10" ht="75">
+      <c r="B157" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="D157" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="E157" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="F157" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="G157" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="H157" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="I157" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J157" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="158" spans="2:10" ht="75">
+      <c r="B158" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="D158" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="E158" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="F158" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="G158" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="H158" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="I158" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J158" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="159" spans="2:10" ht="60">
+      <c r="B159" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="D159" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="E159" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="F159" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="G159" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="H159" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="I159" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J159" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="160" spans="2:10" ht="60">
+      <c r="B160" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="D160" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="E160" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="F160" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="G160" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="H160" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="I160" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J160" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="161" spans="2:10" ht="60">
+      <c r="B161" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="D161" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="E161" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="F161" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="G161" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="H161" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="I161" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J161" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="162" spans="2:10" ht="60">
+      <c r="B162" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="D162" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="E162" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="F162" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="G162" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="H162" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="I162" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J162" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="163" spans="2:10" ht="60">
+      <c r="B163" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="D163" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="E163" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="F163" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="G163" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="H163" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="I163" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J163" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="164" spans="2:10" ht="45">
+      <c r="B164" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="D164" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="E164" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="F164" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="G164" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="H164" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="I164" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J164" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="165" spans="2:10" ht="45">
+      <c r="B165" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="D165" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="E165" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="F165" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="G165" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="H165" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="I165" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J165" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="166" spans="2:10" ht="45">
+      <c r="B166" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="D166" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="E166" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="F166" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="H166" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="I166" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J166" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="167" spans="2:10" ht="60">
+      <c r="B167" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="D167" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="E167" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="F167" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="G167" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="H167" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="I167" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J167" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="168" spans="2:10">
+      <c r="B168" s="4" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/Shubhangi/Use_Case_V_0_4.xlsx
+++ b/Shubhangi/Use_Case_V_0_4.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ISWMS\Documents\ISWMS\Shubhangi\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="120" windowWidth="20055" windowHeight="9210"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="20055" windowHeight="9210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -420,8 +425,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -548,6 +553,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -594,7 +607,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -626,9 +639,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -660,6 +674,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -835,14 +850,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B18" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
@@ -858,7 +873,7 @@
     <col min="12" max="12" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C1" s="7" t="s">
         <v>12</v>
       </c>
@@ -867,7 +882,7 @@
       </c>
       <c r="E1" s="8"/>
     </row>
-    <row r="2" spans="1:12" ht="18.75">
+    <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C2" s="7" t="s">
         <v>15</v>
       </c>
@@ -876,7 +891,7 @@
       </c>
       <c r="E2" s="8"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75">
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
       <c r="C4" s="9" t="s">
         <v>16</v>
@@ -893,7 +908,7 @@
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75">
+    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -931,12 +946,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75">
+    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D7" s="11" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="45">
+    <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -968,7 +983,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="150">
+    <row r="9" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>2</v>
       </c>
@@ -1000,7 +1015,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="60">
+    <row r="10" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
@@ -1032,7 +1047,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="45">
+    <row r="11" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>42</v>
       </c>
@@ -1061,7 +1076,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="90">
+    <row r="12" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>47</v>
       </c>
@@ -1090,7 +1105,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="60">
+    <row r="13" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>54</v>
       </c>
@@ -1119,7 +1134,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="75">
+    <row r="14" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>61</v>
       </c>
@@ -1148,7 +1163,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="60">
+    <row r="15" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>66</v>
       </c>
@@ -1177,7 +1192,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="90">
+    <row r="16" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
         <v>72</v>
       </c>
@@ -1206,7 +1221,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="105">
+    <row r="17" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>77</v>
       </c>
@@ -1235,7 +1250,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="75">
+    <row r="18" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
         <v>83</v>
       </c>
@@ -1264,7 +1279,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="75">
+    <row r="19" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
         <v>89</v>
       </c>
@@ -1293,7 +1308,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="75">
+    <row r="20" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
         <v>94</v>
       </c>
@@ -1322,7 +1337,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75">
+    <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -1336,7 +1351,7 @@
       <c r="I22" s="13"/>
       <c r="J22" s="13"/>
     </row>
-    <row r="23" spans="1:10" ht="60">
+    <row r="23" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
         <v>20</v>
       </c>
@@ -1362,7 +1377,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
         <v>28</v>
       </c>
@@ -1386,24 +1401,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
